--- a/unsereZeiten.xlsx
+++ b/unsereZeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/Studium/3_Theoriephase/Tutorium/Tutorium_2024_DSKI_RV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06BF2B5-BD5C-F342-996E-EF5ABEB34833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64251097-692D-1142-B62F-C676D016807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{4A581D44-A0B0-374D-8FF6-0DD4680DB498}"/>
   </bookViews>
@@ -36,9 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Zeitübersicht</t>
+  </si>
+  <si>
+    <t>pro Termin Vorbereiten</t>
+  </si>
+  <si>
+    <t>und Termin</t>
+  </si>
+  <si>
+    <t>Summe Termin</t>
+  </si>
+  <si>
+    <t>Termine gehalten</t>
+  </si>
+  <si>
+    <t>Zeit die wir haben sollten</t>
+  </si>
+  <si>
+    <t>in Stunden</t>
+  </si>
+  <si>
+    <t>noch zu planen</t>
   </si>
 </sst>
 </file>
@@ -390,13 +411,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793E17F-02B2-8748-9188-AD7B9A66EC3D}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -405,19 +432,95 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f>90+60</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>90+60</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>SUM(B5:B30)</f>
+        <v>540</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>60*3</f>
+        <v>180</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <f>SUM(B4:B30)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33">
         <f>B31/60</f>
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f>H31+H32</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <f>H33*K31</f>
+        <v>540</v>
+      </c>
+      <c r="M34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34">
+        <f>K34-B31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <f>K34/60</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/unsereZeiten.xlsx
+++ b/unsereZeiten.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/Studium/3_Theoriephase/Tutorium/Tutorium_2024_DSKI_RV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64251097-692D-1142-B62F-C676D016807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD832B6C-E0F1-1B42-8954-D1837B82946C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{4A581D44-A0B0-374D-8FF6-0DD4680DB498}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,7 +414,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,10 +457,15 @@
         <v>150</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>60</v>
+      </c>
+    </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <f>SUM(B5:B30)</f>
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="G31" t="s">
         <v>1</v>
@@ -488,7 +493,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33">
         <f>B31/60</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
@@ -511,7 +516,7 @@
       </c>
       <c r="N34">
         <f>K34-B31</f>
-        <v>0</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">

--- a/unsereZeiten.xlsx
+++ b/unsereZeiten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/Studium/3_Theoriephase/Tutorium/Tutorium_2024_DSKI_RV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/Studium/3_Theoriesemester/Tutorium/Tutorium_2024_DSKI_RV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD832B6C-E0F1-1B42-8954-D1837B82946C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE3284-F2EC-F745-B4F3-109D3C4C8EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{4A581D44-A0B0-374D-8FF6-0DD4680DB498}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,13 +459,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>60</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <f>SUM(B5:B30)</f>
-        <v>600</v>
+        <v>810</v>
       </c>
       <c r="G31" t="s">
         <v>1</v>
@@ -478,8 +483,7 @@
         <v>4</v>
       </c>
       <c r="K31">
-        <f>1+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -493,7 +497,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33">
         <f>B31/60</f>
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
@@ -509,14 +513,14 @@
       </c>
       <c r="K34">
         <f>H33*K31</f>
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="M34" t="s">
         <v>7</v>
       </c>
       <c r="N34">
         <f>K34-B31</f>
-        <v>-60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
@@ -525,7 +529,7 @@
       </c>
       <c r="K36">
         <f>K34/60</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/unsereZeiten.xlsx
+++ b/unsereZeiten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/Studium/3_Theoriesemester/Tutorium/Tutorium_2024_DSKI_RV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6530552-AEE3-A249-BA87-3C3575809DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04638A9D-51E6-6F43-8C5B-7BA322ABE4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,8 +93,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -125,11 +126,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -464,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,12 +484,12 @@
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -492,8 +497,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3">
@@ -508,8 +513,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3">
@@ -520,12 +525,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E21" si="0">(HOUR(C5)+MINUTE(C5)/60)-(HOUR(B5)+MINUTE(B5)/60)</f>
+        <f t="shared" ref="E5:E23" si="0">(HOUR(C5)+MINUTE(C5)/60)-(HOUR(B5)+MINUTE(B5)/60)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
@@ -540,8 +545,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3">
@@ -556,8 +561,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3">
@@ -572,8 +577,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -588,8 +593,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
@@ -604,8 +609,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
@@ -620,8 +625,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
@@ -636,8 +641,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3">
@@ -652,116 +657,166 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45338</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45341</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45342</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>45342</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="2">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E17" s="2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E19" s="2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="2">
-        <f>SUM(E4:E13)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="2">
+        <f>SUM(E4:E28)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="H33">
         <f>60*3</f>
         <v>180</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J33" t="s">
         <v>2</v>
       </c>
-      <c r="K31">
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32">
+      <c r="H34">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
+    <row r="35" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
         <v>4</v>
       </c>
-      <c r="H33">
-        <f>H31+H32</f>
+      <c r="H35">
+        <f>H33+H34</f>
         <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="J34" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34">
-        <f>H33*K31</f>
-        <v>810</v>
-      </c>
-      <c r="M34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N34" s="2">
-        <f>K36-E29</f>
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="7:14" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <f>H35*K33</f>
+        <v>1080</v>
+      </c>
+      <c r="M36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="2">
+        <f>K38-E31</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
         <v>7</v>
       </c>
-      <c r="K36">
-        <f>K34/60</f>
-        <v>13.5</v>
+      <c r="K38">
+        <f>K36/60</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/unsereZeiten.xlsx
+++ b/unsereZeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/Studium/3_Theoriesemester/Tutorium/Tutorium_2024_DSKI_RV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04638A9D-51E6-6F43-8C5B-7BA322ABE4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A86CB51-72BC-2749-8FD3-2BEE27D90466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,7 +133,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +472,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,12 +681,12 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C15" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="2">
         <f>SUM(E4:E28)</f>
-        <v>20</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
       </c>
       <c r="N36" s="2">
         <f>K38-E31</f>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="38" spans="7:14" x14ac:dyDescent="0.2">

--- a/unsereZeiten.xlsx
+++ b/unsereZeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/Studium/3_Theoriesemester/Tutorium/Tutorium_2024_DSKI_RV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A86CB51-72BC-2749-8FD3-2BEE27D90466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B08051-90B8-4A41-92BC-8944F31EF8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,25 +720,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>45345</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>45348</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>45347</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -759,7 +787,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="2">
         <f>SUM(E4:E28)</f>
-        <v>20.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.2">
@@ -774,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="7:14" x14ac:dyDescent="0.2">
@@ -800,14 +828,14 @@
       </c>
       <c r="K36">
         <f>H35*K33</f>
-        <v>1080</v>
+        <v>1620</v>
       </c>
       <c r="M36" t="s">
         <v>6</v>
       </c>
       <c r="N36" s="2">
         <f>K38-E31</f>
-        <v>-2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="7:14" x14ac:dyDescent="0.2">
@@ -816,7 +844,7 @@
       </c>
       <c r="K38">
         <f>K36/60</f>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/unsereZeiten.xlsx
+++ b/unsereZeiten.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11215"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/Studium/3_Theoriesemester/Tutorium/Tutorium_2024_DSKI_RV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B08051-90B8-4A41-92BC-8944F31EF8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{0A86CB51-72BC-2749-8FD3-2BEE27D90466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E0CA70-9E49-574F-B0CE-473109793B3D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Zeitübersicht</t>
   </si>
@@ -471,33 +471,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.8359375" customWidth="1"/>
+    <col min="5" max="5" width="10.48046875" style="2"/>
+    <col min="7" max="7" width="20.46875" customWidth="1"/>
+    <col min="10" max="10" width="22.31640625" customWidth="1"/>
+    <col min="13" max="13" width="13.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -512,8 +519,22 @@
         <f>(HOUR(C4)+MINUTE(C4)/60)-(HOUR(B4)+MINUTE(B4)/60)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2">
+        <f>(HOUR(J4)+MINUTE(J4)/60)-(HOUR(I4)+MINUTE(I4)/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -528,8 +549,22 @@
         <f t="shared" ref="E5:E23" si="0">(HOUR(C5)+MINUTE(C5)/60)-(HOUR(B5)+MINUTE(B5)/60)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L23" si="1">(HOUR(J5)+MINUTE(J5)/60)-(HOUR(I5)+MINUTE(I5)/60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -544,8 +579,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -560,8 +609,22 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -576,8 +639,22 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H8" s="5">
+        <v>45328</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -592,8 +669,22 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H9" s="5">
+        <v>45334</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -608,8 +699,22 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H10" s="5">
+        <v>45336</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -624,8 +729,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H11" s="5">
+        <v>45338</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -640,8 +759,22 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H12" s="5">
+        <v>45341</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -656,8 +789,22 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H13" s="5">
+        <v>45342</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>45338</v>
       </c>
@@ -672,8 +819,22 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H14" s="5">
+        <v>45343</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45341</v>
       </c>
@@ -688,8 +849,22 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H15" s="5">
+        <v>45348</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45342</v>
       </c>
@@ -703,8 +878,21 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="4">
+        <v>45350</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45342</v>
       </c>
@@ -718,76 +906,106 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>45345</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="H17" s="4">
+        <v>45347</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" s="4">
+        <v>45349</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>45348</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.75</v>
-      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>45347</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="2">
+        <f>SUM(L4:L23)</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E31" s="2">
         <f>SUM(E4:E28)</f>
-        <v>26</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.2">
@@ -801,9 +1019,6 @@
       <c r="J33" t="s">
         <v>2</v>
       </c>
-      <c r="K33">
-        <v>6</v>
-      </c>
     </row>
     <row r="34" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
@@ -828,14 +1043,14 @@
       </c>
       <c r="K36">
         <f>H35*K33</f>
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="M36" t="s">
         <v>6</v>
       </c>
       <c r="N36" s="2">
         <f>K38-E31</f>
-        <v>1</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="38" spans="7:14" x14ac:dyDescent="0.2">
@@ -844,7 +1059,7 @@
       </c>
       <c r="K38">
         <f>K36/60</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
